--- a/GBTH/bin/Debug/net6.0-windows/default.xlsx
+++ b/GBTH/bin/Debug/net6.0-windows/default.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\elecbug\CSharp\GBTH\bin\Debug\net6.0-windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7051264A-47B8-4C32-84AE-BEF26B699C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DEE4F5-0ED5-4A7B-8927-B9C240B3C131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" xr2:uid="{A60E88F6-742F-46AF-85FD-79EB5DDDF4A7}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{A60E88F6-742F-46AF-85FD-79EB5DDDF4A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/GBTH/bin/Debug/net6.0-windows/default.xlsx
+++ b/GBTH/bin/Debug/net6.0-windows/default.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\elecbug\CSharp\GBTH\bin\Debug\net6.0-windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DEE4F5-0ED5-4A7B-8927-B9C240B3C131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2CCDC8-3E37-4F1D-AEE3-5C6C5FD90F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{A60E88F6-742F-46AF-85FD-79EB5DDDF4A7}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{A60E88F6-742F-46AF-85FD-79EB5DDDF4A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/GBTH/bin/Debug/net6.0-windows/default.xlsx
+++ b/GBTH/bin/Debug/net6.0-windows/default.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\elecbug\CSharp\GBTH\bin\Debug\net6.0-windows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkvkf\Source\Repos\elecbug\CSharp\GBTH\bin\Debug\net6.0-windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2CCDC8-3E37-4F1D-AEE3-5C6C5FD90F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0A74EF-EF6C-4466-AF84-372E5C887D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{A60E88F6-742F-46AF-85FD-79EB5DDDF4A7}"/>
+    <workbookView xWindow="3825" yWindow="1020" windowWidth="20790" windowHeight="13035" xr2:uid="{A60E88F6-742F-46AF-85FD-79EB5DDDF4A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1206,15 +1206,15 @@
       <selection activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>101</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>102</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>103</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>104</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>105</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>106</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>107</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>108</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>109</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>110</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>111</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>112</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>113</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>114</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>115</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>116</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>117</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>118</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>119</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>120</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>121</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>122</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>123</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>124</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>125</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>126</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>127</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>128</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>129</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>130</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>131</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>132</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>133</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>134</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>135</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>136</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>137</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>138</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>139</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>140</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>141</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>142</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>143</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>144</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>145</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>146</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>147</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>148</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>149</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>150</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>151</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>152</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>153</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>154</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>155</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>156</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>157</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>158</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>159</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>160</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>161</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>162</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>163</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>164</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>165</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>166</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>167</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>168</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>169</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>201</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>202</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>203</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>204</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>205</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>206</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>207</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>208</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>209</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>210</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>211</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>212</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>213</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>214</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>215</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>216</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>217</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>218</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>219</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>220</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>301</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>302</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>303</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>304</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>305</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>306</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>307</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>308</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>309</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>310</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>311</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>312</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>313</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>314</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>315</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>316</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>317</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>318</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>319</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>320</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>321</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>322</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>323</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>324</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>325</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>326</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>327</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>328</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>329</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>330</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>331</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>332</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>333</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>334</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>335</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>336</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>337</v>
       </c>

--- a/GBTH/bin/Debug/net6.0-windows/default.xlsx
+++ b/GBTH/bin/Debug/net6.0-windows/default.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkvkf\Source\Repos\elecbug\CSharp\GBTH\bin\Debug\net6.0-windows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\elecbug\CSharp\GBTH\bin\Debug\net6.0-windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0A74EF-EF6C-4466-AF84-372E5C887D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E76AE27-7DAD-481D-9968-21FD58350DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="1020" windowWidth="20790" windowHeight="13035" xr2:uid="{A60E88F6-742F-46AF-85FD-79EB5DDDF4A7}"/>
+    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{A60E88F6-742F-46AF-85FD-79EB5DDDF4A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1202,19 +1202,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45B77A7-503C-41E9-A90C-1A9A033BCE5E}">
   <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="G108" sqref="G108"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="A151" sqref="A151:XFD151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>101</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>102</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>103</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>104</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>105</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>106</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>107</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>108</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>109</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>110</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>111</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>112</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>113</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>114</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>115</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>116</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>117</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>118</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>119</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>120</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>121</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>122</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>123</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>124</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>125</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>126</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>127</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>128</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>129</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>130</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>131</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>132</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>133</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>134</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>135</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>136</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>137</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>138</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>139</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>140</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>141</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>142</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>143</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>144</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>145</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>146</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>147</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>148</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>149</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>150</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>151</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>152</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>153</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>154</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>155</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>156</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>157</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>158</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>159</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>160</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>161</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>162</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>163</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>164</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>165</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>166</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>167</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>168</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>169</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>201</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>202</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>203</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>204</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>205</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>206</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>207</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>208</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>209</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>210</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>211</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>212</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>213</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>214</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>215</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>216</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>217</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>218</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>219</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>220</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>301</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>302</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>303</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>304</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>305</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>306</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>307</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>308</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>309</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
         <v>310</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124" s="1">
         <v>311</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>312</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
         <v>313</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
         <v>314</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
         <v>315</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>316</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>317</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>318</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>319</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A133" s="1">
         <v>320</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>321</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A135" s="1">
         <v>322</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
         <v>323</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
         <v>324</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
         <v>325</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
         <v>326</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
         <v>327</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
         <v>328</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
         <v>329</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
         <v>330</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A144" s="1">
         <v>331</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A145" s="1">
         <v>332</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A146" s="1">
         <v>333</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A147" s="1">
         <v>334</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A148" s="1">
         <v>335</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A149" s="1">
         <v>336</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A150" s="1">
         <v>337</v>
       </c>
